--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394AA6D5-6142-4720-AC26-C28929B5EF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE9C87-F17A-48F3-B8F0-97611103F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7830" yWindow="80" windowWidth="13400" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>P/N</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Motor Bracket</t>
+  </si>
+  <si>
+    <t>cockpit opening template</t>
+  </si>
+  <si>
+    <t>cockpit internal cross-section</t>
   </si>
 </sst>
 </file>
@@ -205,19 +211,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,31 +523,29 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="5"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>230000</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>240000</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -847,6 +850,18 @@
       <c r="A47">
         <f>A46+1</f>
         <v>240003</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f>A47+1</f>
+        <v>240004</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE9C87-F17A-48F3-B8F0-97611103F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346EFB0B-D1A4-4C4A-8000-FA48DF2EAEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="80" windowWidth="13400" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>P/N</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>cockpit internal cross-section</t>
+  </si>
+  <si>
+    <t>REV1 suspension assembly front driver</t>
+  </si>
+  <si>
+    <t>REV1 suspension assembly front passenger</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -864,6 +870,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>240005</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>240006</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>

--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346EFB0B-D1A4-4C4A-8000-FA48DF2EAEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DABF86-71C7-4304-83A6-32B550307A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>P/N</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>REV1 suspension assembly front passenger</t>
+  </si>
+  <si>
+    <t>REV1 suspension assembly rear driver</t>
+  </si>
+  <si>
+    <t>REV1 suspension assembly rear passenger</t>
   </si>
 </sst>
 </file>
@@ -509,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -884,6 +890,24 @@
       </c>
       <c r="B50" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f>A50+1</f>
+        <v>240007</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f>A51+1</f>
+        <v>240008</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DABF86-71C7-4304-83A6-32B550307A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257E7869-9E1E-46A9-A947-67F1DD2CFDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>P/N</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>REV1 suspension assembly rear passenger</t>
+  </si>
+  <si>
+    <t>REV1 steering rack assembly</t>
+  </si>
+  <si>
+    <t>REV1 pedal assembly</t>
   </si>
 </sst>
 </file>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,6 +916,24 @@
         <v>45</v>
       </c>
     </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f>A52+1</f>
+        <v>240009</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f>A53+1</f>
+        <v>240010</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>

--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257E7869-9E1E-46A9-A947-67F1DD2CFDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80F5FC-147D-4A9E-BEB9-E7563A9CC5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>P/N</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>REV1 pedal assembly</t>
+  </si>
+  <si>
+    <t>Front Upper A-Arm, cardboard</t>
+  </si>
+  <si>
+    <t>Front Lower A-Arm, cardboard</t>
+  </si>
+  <si>
+    <t>2024-2025 FSAE TEAM</t>
+  </si>
+  <si>
+    <t>Front Upright, REV 1</t>
   </si>
 </sst>
 </file>
@@ -203,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +257,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -840,106 +861,141 @@
         <v>39</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>240000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>240001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>240002</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f>A37+1</f>
+        <v>240003</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f>A38+1</f>
+        <v>240004</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>240005</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>240006</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f>A41+1</f>
+        <v>240007</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f>A42+1</f>
+        <v>240008</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>240000</v>
+        <f>A43+1</f>
+        <v>240009</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>240001</v>
+        <f>A44+1</f>
+        <v>240010</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>240002</v>
+        <f>A45+1</f>
+        <v>240011</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <f>A46+1</f>
-        <v>240003</v>
+        <v>240012</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <f>A47+1</f>
-        <v>240004</v>
+        <v>240013</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>240005</v>
-      </c>
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>240006</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <f>A50+1</f>
-        <v>240007</v>
-      </c>
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <f>A51+1</f>
-        <v>240008</v>
-      </c>
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <f>A52+1</f>
-        <v>240009</v>
-      </c>
-      <c r="B53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <f>A53+1</f>
-        <v>240010</v>
-      </c>
-      <c r="B54" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80F5FC-147D-4A9E-BEB9-E7563A9CC5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE2E86-2150-4C91-BD0F-0FD17986AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>P/N</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Front Upright, REV 1</t>
+  </si>
+  <si>
+    <t>Rear Upper A-Arm, cardboard</t>
+  </si>
+  <si>
+    <t>Rear Lower A-Arm, cardboard</t>
   </si>
 </sst>
 </file>
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -927,7 +933,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f>A41+1</f>
+        <f t="shared" ref="A42:A50" si="1">A41+1</f>
         <v>240007</v>
       </c>
       <c r="B42" t="s">
@@ -936,7 +942,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <f>A42+1</f>
+        <f t="shared" si="1"/>
         <v>240008</v>
       </c>
       <c r="B43" t="s">
@@ -945,7 +951,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <f>A43+1</f>
+        <f t="shared" si="1"/>
         <v>240009</v>
       </c>
       <c r="B44" t="s">
@@ -954,7 +960,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <f>A44+1</f>
+        <f t="shared" si="1"/>
         <v>240010</v>
       </c>
       <c r="B45" t="s">
@@ -963,7 +969,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <f>A45+1</f>
+        <f t="shared" si="1"/>
         <v>240011</v>
       </c>
       <c r="B46" t="s">
@@ -972,7 +978,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <f>A46+1</f>
+        <f t="shared" si="1"/>
         <v>240012</v>
       </c>
       <c r="B47" t="s">
@@ -981,11 +987,29 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <f>A47+1</f>
+        <f t="shared" si="1"/>
         <v>240013</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>240014</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>240015</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE2E86-2150-4C91-BD0F-0FD17986AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D50F8A8-B9BD-45D7-9BE3-7C8422865714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>P/N</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Rear Lower A-Arm, cardboard</t>
+  </si>
+  <si>
+    <t>steering column REV1</t>
+  </si>
+  <si>
+    <t>tie rod REV 1</t>
   </si>
 </sst>
 </file>
@@ -548,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,7 +939,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" ref="A42:A50" si="1">A41+1</f>
+        <f t="shared" ref="A42:A52" si="1">A41+1</f>
         <v>240007</v>
       </c>
       <c r="B42" t="s">
@@ -1010,6 +1016,24 @@
       </c>
       <c r="B50" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>240016</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>240017</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D50F8A8-B9BD-45D7-9BE3-7C8422865714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850E059B-0ADE-4284-8CC1-D2F231B64C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>P/N</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>tie rod REV 1</t>
+  </si>
+  <si>
+    <t>TTX20 - Base Assembly - 200 - Extended</t>
+  </si>
+  <si>
+    <t>TTX20 - Base Assembly - 200 - Compressed</t>
+  </si>
+  <si>
+    <t>TTX20 - Base Assembly - 267 - Extended</t>
+  </si>
+  <si>
+    <t>Front Upper A-Arm</t>
   </si>
 </sst>
 </file>
@@ -554,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,7 +951,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" ref="A42:A52" si="1">A41+1</f>
+        <f t="shared" ref="A42:A56" si="1">A41+1</f>
         <v>240007</v>
       </c>
       <c r="B42" t="s">
@@ -1034,6 +1046,42 @@
       </c>
       <c r="B52" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>240018</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>240019</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>240020</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>240021</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850E059B-0ADE-4284-8CC1-D2F231B64C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61241104-E97B-4DF8-8794-32AF1F024188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>P/N</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Front Upper A-Arm</t>
+  </si>
+  <si>
+    <t>Front Lower A-Arm</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,7 +954,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" ref="A42:A56" si="1">A41+1</f>
+        <f t="shared" ref="A42:A57" si="1">A41+1</f>
         <v>240007</v>
       </c>
       <c r="B42" t="s">
@@ -1082,6 +1085,15 @@
       </c>
       <c r="B56" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>240022</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61241104-E97B-4DF8-8794-32AF1F024188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6650E8EE-AE0E-4F09-A079-FAF4BF962E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>P/N</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>Front Lower A-Arm</t>
+  </si>
+  <si>
+    <t>Front Suspension Mounting Bracket A</t>
+  </si>
+  <si>
+    <t>Tube Frame Welded Assembly</t>
+  </si>
+  <si>
+    <t>Front Suspension Mounting Bracket B</t>
   </si>
 </sst>
 </file>
@@ -569,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -954,7 +963,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" ref="A42:A57" si="1">A41+1</f>
+        <f t="shared" ref="A42:A60" si="1">A41+1</f>
         <v>240007</v>
       </c>
       <c r="B42" t="s">
@@ -1094,6 +1103,33 @@
       </c>
       <c r="B57" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>240023</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>240024</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>240025</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6650E8EE-AE0E-4F09-A079-FAF4BF962E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3792F8EE-BA4E-409B-BD10-8858C488AC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7830" yWindow="80" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="460" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>P/N</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>Front Suspension Mounting Bracket B</t>
+  </si>
+  <si>
+    <t>Front Suspension Mounting Bracket C</t>
+  </si>
+  <si>
+    <t>Front Suspension Mounting Bracket D</t>
+  </si>
+  <si>
+    <t>Front Suspension Mounting Bracket E</t>
   </si>
 </sst>
 </file>
@@ -578,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,7 +972,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" ref="A42:A60" si="1">A41+1</f>
+        <f t="shared" ref="A42:A63" si="1">A41+1</f>
         <v>240007</v>
       </c>
       <c r="B42" t="s">
@@ -1130,6 +1139,33 @@
       </c>
       <c r="B60" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>240026</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>240027</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>240028</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3792F8EE-BA4E-409B-BD10-8858C488AC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C736873-B74C-41C2-B506-06D1EF1D2B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1530" yWindow="460" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>P/N</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Front Suspension Mounting Bracket E</t>
+  </si>
+  <si>
+    <t>Front Lower A-Arm, Assembly</t>
+  </si>
+  <si>
+    <t>Suspension Rod End Adapter</t>
   </si>
 </sst>
 </file>
@@ -587,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -972,7 +978,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" ref="A42:A63" si="1">A41+1</f>
+        <f t="shared" ref="A42:A65" si="1">A41+1</f>
         <v>240007</v>
       </c>
       <c r="B42" t="s">
@@ -1166,6 +1172,24 @@
       </c>
       <c r="B63" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>240029</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>240030</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Parts List.xlsx
+++ b/Documents/Master Parts List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Capstone\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C736873-B74C-41C2-B506-06D1EF1D2B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52627CD6-862C-49F3-BC68-D65113F0BE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1530" yWindow="460" windowWidth="16560" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>P/N</t>
   </si>
@@ -243,12 +243,27 @@
   </si>
   <si>
     <t>Suspension Rod End Adapter</t>
+  </si>
+  <si>
+    <t>High-Load Ball Joint Rod End</t>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>4482T6</t>
+  </si>
+  <si>
+    <t>Front Upper A-Arm, Assembly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,6 +328,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -978,7 +994,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" ref="A42:A65" si="1">A41+1</f>
+        <f t="shared" ref="A42:A67" si="1">A41+1</f>
         <v>240007</v>
       </c>
       <c r="B42" t="s">
@@ -1183,13 +1199,40 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>240030</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>240031</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="6">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>240032</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
